--- a/target/classes/testData/TestData.xlsx
+++ b/target/classes/testData/TestData.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Software Testing\Automation\SELENIUM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VCITY\Java Class\31 May 25 Evening\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95494B17-F0BF-444B-AC70-3C57A67AAA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A732D02C-C761-4577-9ED8-4E30D11D1B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CoverFoxTextData" sheetId="2" r:id="rId1"/>
-    <sheet name="IND" sheetId="1" r:id="rId2"/>
+    <sheet name="IND" sheetId="1" r:id="rId1"/>
+    <sheet name="coverfox" sheetId="4" r:id="rId2"/>
+    <sheet name="SL" sheetId="2" r:id="rId3"/>
+    <sheet name="AUS" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,64 +28,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>ABHISHEKH</t>
-  </si>
-  <si>
-    <t>SHUBHMAN</t>
-  </si>
-  <si>
-    <t>SURYA</t>
-  </si>
-  <si>
-    <t>mahi</t>
-  </si>
-  <si>
-    <t>sagar</t>
-  </si>
-  <si>
-    <t>PRUTHVI</t>
-  </si>
-  <si>
-    <t>RAM</t>
-  </si>
-  <si>
-    <t>PIYUSH</t>
-  </si>
-  <si>
-    <t>KUMAR</t>
-  </si>
-  <si>
-    <t>Sagar</t>
-  </si>
-  <si>
-    <t>Dethe</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>7777777777</t>
-  </si>
-  <si>
-    <t>411044</t>
-  </si>
-  <si>
-    <t>30</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Hardik</t>
+  </si>
+  <si>
+    <t>Sachin</t>
+  </si>
+  <si>
+    <t>Tilak</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Test@123</t>
+  </si>
+  <si>
+    <t>Rohit</t>
+  </si>
+  <si>
+    <t>Virat</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Soft</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>https://paytm.com/</t>
+  </si>
+  <si>
+    <t>https://www.redbus.in/</t>
+  </si>
+  <si>
+    <t>411046</t>
+  </si>
+  <si>
+    <t>8888888888</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,20 +137,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,31 +429,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCF6E5-091A-4E16-8F56-64B4C0956779}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>11.11</v>
+      </c>
+      <c r="E2">
+        <v>99</v>
+      </c>
+      <c r="F2">
+        <v>13213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{A3735FA3-2B66-41B4-BB6F-57728A35895A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92D7EE7E-89B7-402C-A2F3-5F83E0581D5C}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -426,61 +567,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9267D2D8-5E94-4171-8C74-E265832A8AAD}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9162C42E-5B93-4357-9ED4-8C99D8F3A8E4}">
+  <dimension ref="G11:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="42.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="11" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
+    </row>
+    <row r="12" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <v>212313214</v>
+      </c>
+    </row>
+    <row r="13" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <v>23.33</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <v>23.234252454653401</v>
       </c>
     </row>
   </sheetData>
